--- a/todaycharts/lifeexp/le.xlsx
+++ b/todaycharts/lifeexp/le.xlsx
@@ -114,6 +114,400 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>66.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.08800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.25500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.42200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.58900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.75600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.92300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68.36299999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.45399999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.54499999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.63599999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.72699999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.81799999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.90899999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.204</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.40800000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.81600000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.02000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70.22400000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70.42800000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.63200000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70.83600000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.277</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.514</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71.751</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71.98799999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72.22499999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72.46199999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.69899999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72.93599999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73.17299999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>73.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>71.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.52399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.76999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.01599999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.26199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.50799999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.75399999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75.425</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.775</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.94999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.12499999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76.47499999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.64999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76.82499999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77.196</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77.392</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77.588</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.784</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77.97999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.17599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78.37199999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78.76399999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2111982680"/>
+        <c:axId val="-2137077800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2111982680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137077800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2137077800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2111982680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1599,7 +1993,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2310,6 +2704,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
